--- a/Source Workbooks Testing/Test Case 2.xlsx
+++ b/Source Workbooks Testing/Test Case 2.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5D3FC-97F4-4B97-AA50-3A824248CE1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05D37AF-29C1-41C1-8F77-0AED91C030B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project 1" sheetId="1" r:id="rId1"/>
     <sheet name="Project 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,33 +21,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Team B P1</t>
+  </si>
+  <si>
+    <t>Email B P1</t>
+  </si>
+  <si>
+    <t>Phone B P1</t>
+  </si>
+  <si>
+    <t>Budget B P1</t>
+  </si>
+  <si>
+    <t>Team B P2</t>
+  </si>
+  <si>
+    <t>Email B P2</t>
+  </si>
+  <si>
+    <t>Phone B P2</t>
+  </si>
+  <si>
+    <t>Budget B P2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -74,8 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,34 +378,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -393,34 +413,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C47CE96-E8C0-4B0F-8E6E-31AD5A03F2DE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Source Workbooks Testing/Test Case 2.xlsx
+++ b/Source Workbooks Testing/Test Case 2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05D37AF-29C1-41C1-8F77-0AED91C030B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DD7864-F86F-4F87-AE07-B03A27C398F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Source Workbooks Testing/Test Case 2.xlsx
+++ b/Source Workbooks Testing/Test Case 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DD7864-F86F-4F87-AE07-B03A27C398F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF0211F-6E25-4B55-B400-9EAB39F22937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Team B P1</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Budget B P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C47CE96-E8C0-4B0F-8E6E-31AD5A03F2DE}">
-  <dimension ref="A2:D2"/>
+  <dimension ref="A2:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,6 +443,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="28" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U28" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Source Workbooks Testing/Test Case 2.xlsx
+++ b/Source Workbooks Testing/Test Case 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF0211F-6E25-4B55-B400-9EAB39F22937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322621A7-78DD-47F0-A3F2-D76585583104}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
